--- a/biology/Microbiologie/Lagynophrya/Lagynophrya.xlsx
+++ b/biology/Microbiologie/Lagynophrya/Lagynophrya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lagynophryidae
 Lagynophrya est un genre de Ciliés de l'ordre des Haptorida et de la famille des Trachelophyllidae, ou bien unique représentant de la famille des Lagynophryidae.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Lagynophrya est composé de lagyn-, « bouteille, flacon », et ophrys (du grec ancien οφρύς / ophrýs, « cil, cilium, cilié »), littéralement « bouteille ciliée ».
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Kahl, Lagynophrya regroupe de petits Holophryidae[note 1] dont la forme varie entre allongée ovoïde à courte et cylindriques ; ils sont asymétrique (dorsalement convexe, ventralement plus ou moins allongés). Le pharynx se termine à l'extérieur par un cône de section ronde et renforcé de trichocystes. La brosse dorsale distincte chez certaines espèces est absente chez d'autres[note 2]. Le genre est diphylétique[note 3] et ne sert qu'à rassembler des formes répandues, pour la plupart rares et de peu d’intérêt[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Kahl, Lagynophrya regroupe de petits Holophryidae[note 1] dont la forme varie entre allongée ovoïde à courte et cylindriques ; ils sont asymétrique (dorsalement convexe, ventralement plus ou moins allongés). Le pharynx se termine à l'extérieur par un cône de section ronde et renforcé de trichocystes. La brosse dorsale distincte chez certaines espèces est absente chez d'autres[note 2]. Le genre est diphylétique[note 3] et ne sert qu'à rassembler des formes répandues, pour la plupart rares et de peu d’intérêt.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des ciliés marins[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des ciliés marins.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Lagynophrya a été décrit en 1927 par le biologiste allemand Alfred Kahl[3] initialement dans la famille des Holophryidae. La famille monogénérique des Lagynophryidae a été proposée en 1994 par le protistologiste français Jean Grain (d) dans le traité de zoologie de Grassé[4], proposition suivie par GBIF       (2 novembre 2023)[5]. Le World Register of Marine Species                               (2 novembre 2023)[2] classe quant à lui ce genre dans la famille des Trachelophyllidae.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Lagynophrya a été décrit en 1927 par le biologiste allemand Alfred Kahl initialement dans la famille des Holophryidae. La famille monogénérique des Lagynophryidae a été proposée en 1994 par le protistologiste français Jean Grain (d) dans le traité de zoologie de Grassé, proposition suivie par GBIF       (2 novembre 2023). Le World Register of Marine Species                               (2 novembre 2023) classe quant à lui ce genre dans la famille des Trachelophyllidae.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 novembre 2023)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 novembre 2023) :
 Lagynophrya acuminata Kahl, 1935
 Lagynophrya armata Kahl, 1935
 Lagynophrya conifera Kahl, 1930
